--- a/expimp/prop.xlsx
+++ b/expimp/prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,6 +1417,18 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Еуыва</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>a6bb2422-299b-424c-8ff3-bde561265065</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
